--- a/forecast_summary_B08LGKGBKT.xlsx
+++ b/forecast_summary_B08LGKGBKT.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,19 +476,24 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>45627</v>
       </c>
       <c r="B2" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" t="n">
         <v>160.0614931993597</v>
       </c>
       <c r="D2" t="n">
-        <v>267.4921396679472</v>
+        <v>274.0395315681756</v>
       </c>
       <c r="E2" t="n">
         <v>120</v>
@@ -511,6 +516,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -518,13 +526,13 @@
         <v>45634</v>
       </c>
       <c r="B3" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C3" t="n">
         <v>182.0084097345472</v>
       </c>
       <c r="D3" t="n">
-        <v>295.4777244777252</v>
+        <v>284.9346665876554</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
@@ -547,6 +555,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -554,13 +565,13 @@
         <v>45641</v>
       </c>
       <c r="B4" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" t="n">
         <v>189.2404445924728</v>
       </c>
       <c r="D4" t="n">
-        <v>301.151486967112</v>
+        <v>292.6851245333675</v>
       </c>
       <c r="E4" t="n">
         <v>148</v>
@@ -583,6 +594,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>147.6659813368962</v>
       </c>
       <c r="D5" t="n">
-        <v>252.1043166162596</v>
+        <v>253.152425478628</v>
       </c>
       <c r="E5" t="n">
         <v>71</v>
@@ -619,6 +633,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>76.47124529371773</v>
       </c>
       <c r="D6" t="n">
-        <v>189.6323032740685</v>
+        <v>186.7817770943051</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
@@ -655,6 +672,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +682,13 @@
         <v>45662</v>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="n">
         <v>27.3763347135658</v>
       </c>
       <c r="D7" t="n">
-        <v>140.4376368182788</v>
+        <v>135.5894946516692</v>
       </c>
       <c r="E7" t="n">
         <v>59</v>
@@ -691,6 +711,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -698,13 +721,13 @@
         <v>45669</v>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="n">
         <v>26.59197534610305</v>
       </c>
       <c r="D8" t="n">
-        <v>127.1111217311882</v>
+        <v>133.4974774674958</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -727,6 +750,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,13 +760,13 @@
         <v>45676</v>
       </c>
       <c r="B9" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>50.03311281002109</v>
       </c>
       <c r="D9" t="n">
-        <v>157.753746258016</v>
+        <v>163.2270494530737</v>
       </c>
       <c r="E9" t="n">
         <v>60</v>
@@ -763,6 +789,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -770,13 +799,13 @@
         <v>45683</v>
       </c>
       <c r="B10" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" t="n">
         <v>57.3876671885869</v>
       </c>
       <c r="D10" t="n">
-        <v>162.0088075877561</v>
+        <v>157.4598316646905</v>
       </c>
       <c r="E10" t="n">
         <v>56</v>
@@ -799,6 +828,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -806,13 +838,13 @@
         <v>45690</v>
       </c>
       <c r="B11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" t="n">
         <v>39.43687742550598</v>
       </c>
       <c r="D11" t="n">
-        <v>145.993323171738</v>
+        <v>141.7314173026517</v>
       </c>
       <c r="E11" t="n">
         <v>55</v>
@@ -835,6 +867,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>22.5566924170999</v>
       </c>
       <c r="D12" t="n">
-        <v>127.7522567141578</v>
+        <v>130.4903790288059</v>
       </c>
       <c r="E12" t="n">
         <v>56</v>
@@ -871,6 +906,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -878,13 +916,13 @@
         <v>45704</v>
       </c>
       <c r="B13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>30.97207779208789</v>
       </c>
       <c r="D13" t="n">
-        <v>135.496315224915</v>
+        <v>133.0881699145042</v>
       </c>
       <c r="E13" t="n">
         <v>56</v>
@@ -907,6 +945,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>56.74209716149261</v>
       </c>
       <c r="D14" t="n">
-        <v>169.5193191828064</v>
+        <v>165.7015799800678</v>
       </c>
       <c r="E14" t="n">
         <v>55</v>
@@ -943,6 +984,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -950,13 +994,13 @@
         <v>45718</v>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" t="n">
         <v>71.79617325325175</v>
       </c>
       <c r="D15" t="n">
-        <v>180.3882183675636</v>
+        <v>180.0972745192961</v>
       </c>
       <c r="E15" t="n">
         <v>55</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -986,13 +1033,13 @@
         <v>45725</v>
       </c>
       <c r="B16" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="n">
         <v>62.08725624773117</v>
       </c>
       <c r="D16" t="n">
-        <v>163.0545830655035</v>
+        <v>171.2915858488585</v>
       </c>
       <c r="E16" t="n">
         <v>56</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1022,13 +1072,13 @@
         <v>45732</v>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" t="n">
         <v>40.68357290970618</v>
       </c>
       <c r="D17" t="n">
-        <v>155.685574252507</v>
+        <v>144.6497153687273</v>
       </c>
       <c r="E17" t="n">
         <v>55</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1058,13 +1111,13 @@
         <v>45739</v>
       </c>
       <c r="B18" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>28.07237100408154</v>
       </c>
       <c r="D18" t="n">
-        <v>131.6780268369883</v>
+        <v>138.1313948098623</v>
       </c>
       <c r="E18" t="n">
         <v>51</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1094,13 +1150,13 @@
         <v>45746</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>28.63087592294891</v>
       </c>
       <c r="D19" t="n">
-        <v>131.1378300813692</v>
+        <v>142.5958089961387</v>
       </c>
       <c r="E19" t="n">
         <v>50</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1130,13 +1189,13 @@
         <v>45753</v>
       </c>
       <c r="B20" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" t="n">
         <v>31.54564707007718</v>
       </c>
       <c r="D20" t="n">
-        <v>132.5066777968889</v>
+        <v>138.3978487544771</v>
       </c>
       <c r="E20" t="n">
         <v>54</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>29.50324034742972</v>
       </c>
       <c r="D21" t="n">
-        <v>136.9235427629435</v>
+        <v>139.0062146961534</v>
       </c>
       <c r="E21" t="n">
         <v>49</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>B550 GAMING X V2</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1320,7 +1385,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1590</t>
+          <t>1583</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1397,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1034</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1409,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>765</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1421,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>210</t>
         </is>
       </c>
     </row>
